--- a/data/statistic_results/sentiment_hfine.xlsx
+++ b/data/statistic_results/sentiment_hfine.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.4778341711308463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.7805117374352715</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.9070181868477718</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9853098253344563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.2002173482831073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9950256236176414</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999968780471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9930631814391377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.9996346168833081</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="11">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.995179184379362</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9309558548014283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9987618038293193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.9919113021283086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9998040182785051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.9997995671904099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3278482235814266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5815463175659359</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.8578029813689663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.9998843934945501</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="21">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.7611714212716856</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="22">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3346108796829912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.9956995967783329</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="24">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.9295879362406574</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.999141240200109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-0.4212947376695015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9211427050819492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.9050887826901497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.9388375810488687</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="30">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.2311498900554536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.8923120577074317</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.4008371800903994</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9241063389095692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.9969570741275262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.9973660537421647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.7354285253121231</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="37">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.4652129671848269</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="38">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.9987545637634538</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.9724347896362882</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.3312978009844907</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="41">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.9905116272700074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.9071002924313749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.9593343901718039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.6089952197829236</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.4264585991213097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.7949350886257913</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="47">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.8322364677484819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.9738958375479769</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="49">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.9171483781946521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.7354212005412242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-0.6195005103148175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.5776650962677166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.9993468614030299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-0.9475133412299965</v>
+        <v>-0.4737566706149983</v>
       </c>
     </row>
     <row r="55">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.9789421075677698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.792962749639367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.9810217405053936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.9666845899007908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.9991604970268466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.9966736374429617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.8670076960448809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.9746422703714936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.8870089214142709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.9998327965621381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.9864618285282791</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="66">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.8347700435212078</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="67">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.6858608101108394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.9428210147529159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-0.2482144364746595</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="70">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.7702672695446962</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.9989392131133579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.09365036070732446</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="73">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.9932110976128883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.627733184474258</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="75">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.9795738511165692</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="76">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.836176725854328</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="77">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.794856923324424</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="78">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.7897237612998356</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="79">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.9626139291345697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.9862017529701281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.8859263117259415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.8363618393444028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.4906777380626857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.9443968903576898</v>
+        <v>0.4721984451788449</v>
       </c>
     </row>
     <row r="85">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.6213680477311234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-0.4374932449702342</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.4880453644614358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.9946831306975592</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.9981429506479249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.810467668760561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.9393461834296146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.9957484429593884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.9996316068840743</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="94">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.9999973687490118</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="95">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.8465090314409469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.9807900849598774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-0.9759741188309328</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.9875583032932871</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="99">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.9787651751722115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.824651203137323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.223220192072801</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="102">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.9998642057197433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.6603815901868464</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="104">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.9746590609869707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.5145950662853478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-0.582383804553823</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="107">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.8212495072254995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.9865716373871849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.9535678004811419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.8882979652934719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.9956220386130012</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="112">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.9979831466718263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-0.7027928103568661</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="114">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.9861340154912865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.9438224582382797</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.9958607103741364</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.585484841113433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.9879057902237227</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="119">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.9998399143213399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.4916785769038821</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9914650151925126</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="122">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.7117317234226264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.9725603945472578</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="124">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.6964420581344168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.9999767620044389</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="126">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.5505284804014292</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="127">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.9991440875435831</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="128">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.9124643662319807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.8421049609119653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.7591092989095569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.999765206710524</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="132">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>-0.7935744406800433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.9715673483621139</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.9624131486257501</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="135">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.9806740356422035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.5751755139799675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.9716770280183367</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="138">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.9782003051815229</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.7065532557448431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.9999821569372955</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="141">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.9706373370381223</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="142">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-0.8367064440502792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.9805106227854545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.4278717637507594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.9676462364643912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.9427112309660137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.6225222366570693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.5497403496650513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.1851851851851845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.6693764674880816</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="151">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.9786526535005069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.5944965693462383</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="153">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.9895019419330395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.9204436133288634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.8728889800301227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-0.5881397238193791</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.9159062958510613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.2339716993429384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.5316177350004996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.9960738979304717</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="161">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.8437139283725705</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.9999906856773479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.4031060439481615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.9242828117577881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.9286466933027995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.9964151056439141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.7808622276252606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.924126579913479</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="169">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.9781606554222895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.9643424041860122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.9498659794092947</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="172">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-0.7389264561309341</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.7473873561784061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.7451649056327097</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="175">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.9742862933908751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-0.5404725705993967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.783520071080573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.8614502471511511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.8881945653011571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.941946309533054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.9495336781929438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.8929130494882862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.4265896898990378</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="184">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.2937719352163652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.9853141452807677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.8598063344851836</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="187">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.9999795555514013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.998944112988621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.9841790732730029</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-0.03004512373157331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.9877914163264567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.4787442941880971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-0.2709407027773372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-0.4994931622184706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.7726247080072468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.1458237457692002</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="197">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.984364595254811</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="198">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-0.8751444794905932</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="199">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.9991753364070715</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.7153597093695789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.6783685926201914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.9119784839976819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.9905836526479679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.8162520603531411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.9399719886263125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.9865360958342779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.9875412346881127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.9753705596966218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.9613039653751478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.6129969948575877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.9999606353440167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.9406032714456545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.9561732244158805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.4592303251043246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.9042573052427461</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="216">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.961783348672905</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="217">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-0.3009569545068598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-0.5583597409258256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.9238370783262397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.9936516688773127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.9915361831258456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.4089475400974842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.9980806868098437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.09466076445680738</v>
+        <v>0.04733038222840369</v>
       </c>
     </row>
     <row r="225">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.9925121089853628</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="226">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.9776892906876284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.4643594751620281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.3987567405489347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.988828553871965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.9704666300346347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.9928321232309174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.9987893340003253</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="233">
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.1821115943214826</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="234">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-0.5795769825062123</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="235">
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.5608137220272511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.1666666666666672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.9960990117119399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.9112059496046991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.9826532615796457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-0.9413638639725963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.9977034309705786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.06585609702635953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.9885427767465322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.6604104856561017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.8656150294247893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.8871222586465495</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="247">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.9999980344775288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.9995067345320581</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="249">
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.6994298266731298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.9824158029578354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.9965389607595025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.9810357931262357</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="253">
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.8882032493448944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.8112596376039081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.9995609546574389</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="256">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.8487473340417486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-0.1398683820405027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.8776734101875943</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="259">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-0.9962639605351671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.8418204261305058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.9929313635036017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.9937976311370809</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="263">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.9989216565911483</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="264">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.04032400752217979</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="265">
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.9382324709585255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.9996048235062762</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="267">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.8823052741682416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.9882823190360273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.9374675100235754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.999789974680575</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="271">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.9994750717510053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.9894925292493952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-0.06099285248015773</v>
+        <v>-0.03049642624007887</v>
       </c>
     </row>
     <row r="274">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.9285054265190633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.7621363711853895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.9998123758512734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.8421515792247509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.9931056362924893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.9894450270990744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.9697765733117505</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="281">
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.932785618547131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.3117256417880858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.7246437554774863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.9998208545445435</v>
+        <v>-0.4285714285714285</v>
       </c>
     </row>
     <row r="285">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-0.9615950290358155</v>
+        <v>-0.4807975145179078</v>
       </c>
     </row>
     <row r="286">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-0.9920506782315592</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.09735822179821008</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-0.9999990898407749</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="289">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-0.9738832663846679</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-0.9996332018259746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-0.9622565337142908</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="292">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-0.9999862234886703</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="293">
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-0.9999099631769954</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="294">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-1</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="295">
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-0.9999677425346885</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="296">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-0.999814721694237</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="297">
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-0.9956210841717272</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="298">
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-0.9935334953496286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-0.999999407082147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-0.9999999998981606</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="301">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-0.9996317580719205</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-0.9715220925264514</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.4105485899634871</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="304">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-0.906056084464141</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="305">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-0.2576236590047174</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="306">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-0.9379668201152913</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-0.851347074151994</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-0.9999977342713664</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="309">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.5309970636474617</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-0.9999026198838019</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="311">
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>-0.9992458863319218</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-0.9999292976104814</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="313">
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-0.9998719149860427</v>
+        <v>-0.4999359574930213</v>
       </c>
     </row>
     <row r="314">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>0.1527339361740623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-0.8725833808056938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.2064272587686891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -8357,7 +8357,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-0.6992815246087289</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-0.9578436555283663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.9829143205481283</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="320">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0.9069712301060036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-0.9350638171552894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0.9402469067180601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.9570149544581439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.9723945000083623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.9888122720874235</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="326">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.9963549020564573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.9718748857035511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.9357417850908805</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="329">
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.9996714708915553</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="330">
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.9998956563548589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.9999993765569679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.7920601606170246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>0.9999589078423068</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="334">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.9984803345717959</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="335">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.9999916645028259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.9901291348641241</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="337">
@@ -8857,7 +8857,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.9911581826948277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.9999999304366967</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="339">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.9997704569964574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.9976214023349843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.999991154105643</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="342">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.995086476656641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -9007,7 +9007,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.9558470986902632</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="344">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.993468350169096</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="345">
@@ -9057,7 +9057,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.994619722785439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0.9711122934108678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.9988694390774691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.999149341709223</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="349">
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.999787550547927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.9989805498857156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.9934749687528153</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="352">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.9941108538825201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -9257,7 +9257,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.880439356551288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-0.9375574803522926</v>
+        <v>-0.4687787401761463</v>
       </c>
     </row>
     <row r="355">
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-0.02123059566071661</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="356">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>0.9999964895426925</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="357">
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>0.9999835980569267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0.9732384946570158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>0.9980724263294212</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
